--- a/Questions/Mathematics/Numbers/Fraction.xlsx
+++ b/Questions/Mathematics/Numbers/Fraction.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Mathematics/Numbers/Fraction.xlsx
+++ b/Questions/Mathematics/Numbers/Fraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E95D988-3AFF-4A18-ADF3-A8889D055D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAE5959-6F25-4D50-A61D-0C0645C0EAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
   <si>
     <t>Id</t>
   </si>
@@ -151,9 +151,6 @@
     <t>mixed</t>
   </si>
   <si>
-    <t>Mixed-Number is a ***** number with a fraction</t>
-  </si>
-  <si>
     <t>Mixed-Number is a whole number with a *****</t>
   </si>
   <si>
@@ -217,9 +214,15 @@
     <t>def from_mixed_number(cls, whole, numerator, denominator):\n\t\tnumerator += whole * *****\n\t\treturn cls(numerator, denominator)</t>
   </si>
   <si>
+    <t>def normalize(cls, f1, f2):\n\t\tlcm = u_multiple.lcm(*****)\n\t\tnumerator_3 = f1.numerator * (lcm // t1.denominator)\n\t\tf3 = Fraction(numerator_3, lcm)\n\t\tnumerator_4 = f2.numerator * (lcm // f2.denominator)\n\t\tf4 = Fraction(numerator_4, lcm)\n\t\treturn f3, f4</t>
+  </si>
+  <si>
     <t>f1.denominator, f2.denominator</t>
   </si>
   <si>
+    <t>def normalize(cls, f1, f2):\n\t\tlcm = u_multiple.lcm(f1.denominator,t2.denominator)\n\t\tnumerator_3 = ***** * (lcm // f1.denominator)</t>
+  </si>
+  <si>
     <t>f1.numerator</t>
   </si>
   <si>
@@ -238,10 +241,22 @@
     <t>def normalize(cls, f1, f2):\n\t\tlcm = u_multiple.lcm(*****)\n\t\tnumerator_3 = f1.numerator * (lcm // t1.denominator)\n\t\tf3 = Fraction(numerator_3, *****)</t>
   </si>
   <si>
-    <t>def normalize(cls, f1, f2):\n\t\tlcm = u_multiple.lcm(*****)\n\t\tnumerator_3 = f1.numerator * (lcm // t1.denominator)\n\t\tf3 = Fraction(numerator_3, lcm)\n\t\tnumerator_4 = f2.numerator * (lcm // f2.denominator)\n\t\tf4 = Fraction(numerator_4, lcm)\n\t\treturn f3, f4</t>
-  </si>
-  <si>
-    <t>def normalize(cls, f1, f2):\n\t\tlcm = u_multiple.lcm(f1.denominator,t2.denominator)\n\t\tnumerator_3 = ***** * (lcm // f1.denominator)</t>
+    <t>Generate #16 Fraction Addition</t>
+  </si>
+  <si>
+    <t>200914</t>
+  </si>
+  <si>
+    <t>Generate #17 Fraction Subtraction</t>
+  </si>
+  <si>
+    <t>Generate #18 Fraction Multuplication</t>
+  </si>
+  <si>
+    <t>Generate #19 Fraction Division</t>
+  </si>
+  <si>
+    <t>Mixed-Number is a w***** number with a fraction</t>
   </si>
 </sst>
 </file>
@@ -701,11 +716,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1131,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>21</v>
@@ -1136,7 +1151,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>9</v>
@@ -1156,7 +1171,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -1176,7 +1191,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1196,10 +1211,10 @@
         <v>32</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1216,10 +1231,10 @@
         <v>32</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1236,10 +1251,10 @@
         <v>32</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1256,10 +1271,10 @@
         <v>32</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1276,10 +1291,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1296,10 +1311,10 @@
         <v>32</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1316,10 +1331,10 @@
         <v>7</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1336,7 +1351,7 @@
         <v>32</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -1356,7 +1371,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -1376,7 +1391,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -1396,7 +1411,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>21</v>
@@ -1416,7 +1431,7 @@
         <v>32</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>27</v>
@@ -1425,7 +1440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1211</v>
       </c>
@@ -1436,7 +1451,7 @@
         <v>32</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>65</v>
@@ -1450,16 +1465,16 @@
         <v>1212</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1470,16 +1485,16 @@
         <v>1213</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1490,16 +1505,16 @@
         <v>1214</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1510,19 +1525,87 @@
         <v>1215</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1255</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1256</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1257</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1258</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Mathematics/Numbers/Fraction.xlsx
+++ b/Questions/Mathematics/Numbers/Fraction.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
@@ -1694,7 +1762,6 @@
         </is>
       </c>
     </row>
-    <row r="45"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Fraction.xlsx
+++ b/Questions/Mathematics/Numbers/Fraction.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
@@ -1762,6 +1694,7 @@
         </is>
       </c>
     </row>
+    <row r="45"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Fraction.xlsx
+++ b/Questions/Mathematics/Numbers/Fraction.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +600,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>***** is rational number that represents a part of a whole</t>
+          <t>***************** is rational number that represents a part of a whole</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
@@ -561,7 +629,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Fraction is r***** number that represents a part of a whole</t>
+          <t>Fraction is r********* number that represents a part of a whole</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -590,7 +658,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Fraction is rational number that represents a ***** of a whole</t>
+          <t>Fraction is rational number that represents a **** of a whole</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -619,7 +687,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Fraction b***** separates the part from the whole</t>
+          <t>Fraction b** separates the part from the whole</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -648,7 +716,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Fraction Bar s***** the part from the whole</t>
+          <t>Fraction Bar s************** the part from the whole</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -676,7 +744,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>Fraction Bar separates the ***** from the whole</t>
+          <t>Fraction Bar separates the **** from the whole</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -732,7 +800,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>N***** is the part in the fraction</t>
+          <t>N************** is the part in the fraction</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -760,7 +828,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>Numerator is the part in the *****</t>
+          <t>Numerator is the part in the **************</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -788,7 +856,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>D***** is the whole in the fraction</t>
+          <t>D********** is the whole in the fraction</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -816,7 +884,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>Denominator is the whole in the *****</t>
+          <t>Denominator is the whole in the **************</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -844,7 +912,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>Remainder is the part left after *****</t>
+          <t>Remainder is the part left after **************</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -872,7 +940,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>Remainder of 5/2 is *****</t>
+          <t>Remainder of 5/2 is *</t>
         </is>
       </c>
       <c r="E14" s="5" t="n">
@@ -898,7 +966,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>numerator ***** denominator =&gt; Proper Fraction</t>
+          <t>numerator * denominator =&gt; Proper Fraction</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -954,7 +1022,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>numerator ***** denominator =&gt; Improper Fraction</t>
+          <t>numerator ** denominator =&gt; Improper Fraction</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -1010,7 +1078,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>***** Number is a whole number with a fraction</t>
+          <t>****** Number is a whole number with a fraction</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1038,7 +1106,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Mixed-Number is a w***** number with a fraction</t>
+          <t>Mixed-Number is a w**** number with a fraction</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1066,7 +1134,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>Mixed-Number is a whole number with a *****</t>
+          <t>Mixed-Number is a whole number with a **************</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1094,7 +1162,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>def __init__(self, numerator, denominator):\n\t\tassert numerator &gt;= *****</t>
+          <t>def __init__(self, numerator, denominator):\n\t\tassert numerator &gt;= *</t>
         </is>
       </c>
       <c r="E22" s="5" t="n">
@@ -1120,7 +1188,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>def __init__(self, numerator, denominator):\n\t\tassert denominator &gt;= *****</t>
+          <t>def __init__(self, numerator, denominator):\n\t\tassert denominator &gt;= *</t>
         </is>
       </c>
       <c r="E23" s="5" t="n">
@@ -1174,7 +1242,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>def to_mixed_number(self):\n\t\twhole = self.numerator // *****</t>
+          <t>def to_mixed_number(self):\n\t\twhole = self.numerator // ******************</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
@@ -1202,7 +1270,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>def to_mixed_number(self):\n\t\tnumerator = self.numerator ***** self.denominator</t>
+          <t>def to_mixed_number(self):\n\t\tnumerator = self.numerator * self.denominator</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1230,7 +1298,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>def simplify(self):\n\t\tgcf = u_factor.gcf(*****)\n\t\tnumerator = self.numerator // gcf\n\t\tdenominator = self.denominator // gcf\n\t\treturn Fraction(numerator, denominator)</t>
+          <t>def simplify(self):\n\t\tgcf = u_factor.gcf(********************************************************************************************************************************************)\n\t\tnumerator = self.numerator // gcf\n\t\tdenominator = self.denominator // gcf\n\t\treturn Fraction(numerator, denominator)</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1258,7 +1326,7 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>def simplify(self):\n\t\tgcf = u_factor.gcf(self.numerator,self.denominator)\n\t\tnumerator = self.numerator // *****\n\t\tdenominator = self.denominator // gcf\n\t\treturn Fraction(numerator, denominator)</t>
+          <t>def simplify(self):\n\t\tgcf = u_factor.gcf(self.numerator,self.denominator)\n\t\tnumerator = self.numerator // ***\n\t\tdenominator = self.denominator // gcf\n\t\treturn Fraction(numerator, denominator)</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
@@ -1286,7 +1354,7 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>def simplify(self):\n\t\tgcf = u_factor.gcf(self.numerator,self.denominator)\n\t\tnumerator = self.numerator // gcf\n\t\tdenominator = ***** // gcf\n\t\treturn Fraction(numerator, denominator)</t>
+          <t>def simplify(self):\n\t\tgcf = u_factor.gcf(self.numerator,self.denominator)\n\t\tnumerator = self.numerator // gcf\n\t\tdenominator = ****************** // gcf\n\t\treturn Fraction(numerator, denominator)</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -1314,7 +1382,7 @@
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>Reciprocal of a/b is *****</t>
+          <t>Reciprocal of a/b is ***</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
@@ -1342,7 +1410,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>def from_mixed_number(cls, whole, numerator, denominator):\n\t\tassert whole &gt;= *****</t>
+          <t>def from_mixed_number(cls, whole, numerator, denominator):\n\t\tassert whole &gt;= *</t>
         </is>
       </c>
       <c r="E31" s="5" t="n">
@@ -1368,7 +1436,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>def from_mixed_number(cls, whole, numerator, denominator):\n\t\tassert numerator &gt;= *****</t>
+          <t>def from_mixed_number(cls, whole, numerator, denominator):\n\t\tassert numerator &gt;= *</t>
         </is>
       </c>
       <c r="E32" s="5" t="n">
@@ -1394,7 +1462,7 @@
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>def from_mixed_number(cls, whole, numerator, denominator):\n\t\tassert denominator &gt;= *****</t>
+          <t>def from_mixed_number(cls, whole, numerator, denominator):\n\t\tassert denominator &gt;= *</t>
         </is>
       </c>
       <c r="E33" s="5" t="n">
@@ -1448,7 +1516,7 @@
       </c>
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>def from_mixed_number(cls, whole, numerator, denominator):\n\t\tnumerator += whole * *****\n\t\treturn cls(numerator, denominator)</t>
+          <t>def from_mixed_number(cls, whole, numerator, denominator):\n\t\tnumerator += whole * *****************\n\t\treturn cls(numerator, denominator)</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
@@ -1504,7 +1572,7 @@
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>def normalize(cls, f1, f2):\n\t\tlcm = u_multiple.lcm(f1.denominator,t2.denominator)\n\t\tnumerator_3 = ***** * (lcm // f1.denominator)</t>
+          <t>def normalize(cls, f1, f2):\n\t\tlcm = u_multiple.lcm(f1.denominator,t2.denominator)\n\t\tnumerator_3 = ****************** * (lcm // f1.denominator)</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
@@ -1532,7 +1600,7 @@
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>def normalize(cls, f1, f2):\n\t\tnumerator_3 = f1.numerator * (***** // f1.denominator)</t>
+          <t>def normalize(cls, f1, f2):\n\t\tnumerator_3 = f1.numerator * (** // f1.denominator)</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
@@ -1560,7 +1628,7 @@
       </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
-          <t>def normalize(cls, f1, f2):\n\t\tnumerator_3 = f1.numerator * (lcm // *****)</t>
+          <t>def normalize(cls, f1, f2):\n\t\tnumerator_3 = f1.numerator * (lcm // *****************)</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
@@ -1588,7 +1656,7 @@
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>def normalize(cls, f1, f2):\n\t\tlcm = u_multiple.lcm(*****)\n\t\tnumerator_3 = f1.numerator * (lcm // t1.denominator)\n\t\tf3 = Fraction(numerator_3, *****)</t>
+          <t>def normalize(cls, f1, f2):\n\t\tlcm = u_multiple.lcm(**)\n\t\tnumerator_3 = f1.numerator * (lcm // t1.denominator)\n\t\tf3 = Fraction(numerator_3, *****)</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">

--- a/Questions/Mathematics/Numbers/Fraction.xlsx
+++ b/Questions/Mathematics/Numbers/Fraction.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -600,7 +532,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>***************** is rational number that represents a part of a whole</t>
+          <t>***** is rational number that represents a part of a whole</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
@@ -629,7 +561,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Fraction is r********* number that represents a part of a whole</t>
+          <t>Fraction is r***** number that represents a part of a whole</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -716,7 +648,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Fraction Bar s************** the part from the whole</t>
+          <t>Fraction Bar s***** the part from the whole</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -800,7 +732,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>N************** is the part in the fraction</t>
+          <t>N***** is the part in the fraction</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -828,7 +760,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>Numerator is the part in the **************</t>
+          <t>Numerator is the part in the *****</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -856,7 +788,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>D********** is the whole in the fraction</t>
+          <t>D***** is the whole in the fraction</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -884,7 +816,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>Denominator is the whole in the **************</t>
+          <t>Denominator is the whole in the *****</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -912,7 +844,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>Remainder is the part left after **************</t>
+          <t>Remainder is the part left after *****</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -1078,7 +1010,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>****** Number is a whole number with a fraction</t>
+          <t>***** Number is a whole number with a fraction</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1134,7 +1066,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>Mixed-Number is a whole number with a **************</t>
+          <t>Mixed-Number is a whole number with a *****</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1242,7 +1174,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>def to_mixed_number(self):\n\t\twhole = self.numerator // ******************</t>
+          <t>def to_mixed_number(self):\n\t\twhole = self.numerator // *****</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
@@ -1298,7 +1230,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>def simplify(self):\n\t\tgcf = u_factor.gcf(********************************************************************************************************************************************)\n\t\tnumerator = self.numerator // gcf\n\t\tdenominator = self.denominator // gcf\n\t\treturn Fraction(numerator, denominator)</t>
+          <t>def simplify(self):\n\t\tgcf = u_factor.gcf(*****)\n\t\tnumerator = self.numerator // gcf\n\t\tdenominator = self.denominator // gcf\n\t\treturn Fraction(numerator, denominator)</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1354,7 +1286,7 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>def simplify(self):\n\t\tgcf = u_factor.gcf(self.numerator,self.denominator)\n\t\tnumerator = self.numerator // gcf\n\t\tdenominator = ****************** // gcf\n\t\treturn Fraction(numerator, denominator)</t>
+          <t>def simplify(self):\n\t\tgcf = u_factor.gcf(self.numerator,self.denominator)\n\t\tnumerator = self.numerator // gcf\n\t\tdenominator = ***** // gcf\n\t\treturn Fraction(numerator, denominator)</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -1516,7 +1448,7 @@
       </c>
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>def from_mixed_number(cls, whole, numerator, denominator):\n\t\tnumerator += whole * *****************\n\t\treturn cls(numerator, denominator)</t>
+          <t>def from_mixed_number(cls, whole, numerator, denominator):\n\t\tnumerator += whole * *****\n\t\treturn cls(numerator, denominator)</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
@@ -1572,7 +1504,7 @@
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>def normalize(cls, f1, f2):\n\t\tlcm = u_multiple.lcm(f1.denominator,t2.denominator)\n\t\tnumerator_3 = ****************** * (lcm // f1.denominator)</t>
+          <t>def normalize(cls, f1, f2):\n\t\tlcm = u_multiple.lcm(f1.denominator,t2.denominator)\n\t\tnumerator_3 = ***** * (lcm // f1.denominator)</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
@@ -1628,7 +1560,7 @@
       </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
-          <t>def normalize(cls, f1, f2):\n\t\tnumerator_3 = f1.numerator * (lcm // *****************)</t>
+          <t>def normalize(cls, f1, f2):\n\t\tnumerator_3 = f1.numerator * (lcm // *****)</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
